--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC67CF7-7061-4982-9BC0-CE520AFED6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD1E49D-0D24-4600-8AD5-D9192BEF5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Netflix</t>
   </si>
@@ -362,7 +362,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,12 +422,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>1006</v>
+        <v>1253.22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -999,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>427.27</v>
+        <v>425.21100000000001</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,7 +1008,7 @@
       </c>
       <c r="I5" s="2">
         <f>I4*I3</f>
-        <v>429833.62</v>
+        <v>532882.92942000006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,11 +1016,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <f>7199.848+1171.242</f>
-        <v>8371.09</v>
+        <f>8177.405+213.115</f>
+        <v>8390.52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1040,11 +1034,11 @@
         <v>7</v>
       </c>
       <c r="I7" s="2">
-        <f>1005.881+14911.037</f>
-        <v>15916.918</v>
+        <f>0+14453.206</f>
+        <v>14453.206</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
       </c>
       <c r="I8" s="2">
         <f>I5-I6+I7</f>
-        <v>437379.44799999997</v>
+        <v>538945.61542000005</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,10 +1105,10 @@
   <dimension ref="A1:R667"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31:K33"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1191,9 @@
       <c r="K3" s="2">
         <v>4617</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>4929</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1236,7 +1232,9 @@
       <c r="K4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1275,7 +1273,9 @@
       <c r="K5" s="2">
         <v>3405</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>3538</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1314,7 +1314,9 @@
       <c r="K6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1353,7 +1355,9 @@
       <c r="K7" s="2">
         <v>1262</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>1307</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1392,7 +1396,9 @@
       <c r="K8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1431,7 +1437,9 @@
       <c r="K9" s="2">
         <v>1259</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>1305</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1470,7 +1478,9 @@
       <c r="K10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1515,7 +1525,9 @@
       <c r="K11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1562,7 +1574,9 @@
       <c r="K12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1602,7 +1616,7 @@
         <v>10543</v>
       </c>
       <c r="L13" s="6">
-        <v>11035</v>
+        <v>11079.165999999999</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1642,7 +1656,9 @@
       <c r="K14" s="2">
         <v>5263.1469999999999</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>5325.3109999999997</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1663,7 +1679,7 @@
         <v>3513.8310000000001</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:K15" si="1">E13-E14</f>
+        <f t="shared" ref="E15:L15" si="1">E13-E14</f>
         <v>3610.8899999999994</v>
       </c>
       <c r="F15" s="2">
@@ -1690,7 +1706,10 @@
         <f t="shared" si="1"/>
         <v>5279.8530000000001</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>5753.8549999999996</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1729,7 +1748,9 @@
       <c r="K16" s="2">
         <v>688.37</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>713.26499999999999</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1768,7 +1789,9 @@
       <c r="K17" s="2">
         <v>822.82299999999998</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>824.68299999999999</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1807,7 +1830,9 @@
       <c r="K18" s="2">
         <v>421.46199999999999</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>441.21300000000002</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1844,7 +1869,7 @@
         <v>2602.8369999999995</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19:K19" si="3">I15-SUM(I16:I18)</f>
+        <f t="shared" ref="I19:L19" si="3">I15-SUM(I16:I18)</f>
         <v>2909.4769999999994</v>
       </c>
       <c r="J19" s="2">
@@ -1855,7 +1880,10 @@
         <f t="shared" si="3"/>
         <v>3347.1980000000003</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>3774.6939999999995</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1894,7 +1922,9 @@
       <c r="K20" s="2">
         <v>184.172</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>182.649</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1933,7 +1963,9 @@
       <c r="K21" s="2">
         <v>50.899000000000001</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>39.630000000000003</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1970,7 +2002,7 @@
         <v>2513.8559999999998</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:K22" si="5">I19-I20+I21</f>
+        <f t="shared" ref="I22:L22" si="5">I19-I20+I21</f>
         <v>2702.9539999999993</v>
       </c>
       <c r="J22" s="2">
@@ -1981,7 +2013,10 @@
         <f t="shared" si="5"/>
         <v>3213.9250000000002</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>3631.6749999999997</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2020,7 +2055,9 @@
       <c r="K23" s="2">
         <v>323.375</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>506.262</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2069,7 +2106,8 @@
         <v>2890.55</v>
       </c>
       <c r="L24" s="2">
-        <v>3055</v>
+        <f>+L22-L23</f>
+        <v>3125.4129999999996</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2136,9 +2174,9 @@
         <f t="shared" si="9"/>
         <v>6.7651602031502334</v>
       </c>
-      <c r="L26" s="7" t="e">
+      <c r="L26" s="7">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>7.3502637514081233</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2178,7 +2216,9 @@
       <c r="K27" s="2">
         <v>427.27</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <v>425.21100000000001</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2221,7 +2261,7 @@
         <v>0.16757769135396372</v>
       </c>
       <c r="I29" s="25">
-        <f t="shared" ref="I29:K29" si="11">I13/E13-1</f>
+        <f t="shared" ref="I29:L29" si="11">I13/E13-1</f>
         <v>0.15020895216250496</v>
       </c>
       <c r="J29" s="25">
@@ -2232,7 +2272,10 @@
         <f t="shared" si="11"/>
         <v>0.12513393181109955</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15899222851858563</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2267,7 +2310,9 @@
       <c r="K30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2312,10 +2357,13 @@
         <v>0.43716560944666738</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" ref="K31" si="16">K15/K13</f>
+        <f t="shared" ref="K31:L31" si="16">K15/K13</f>
         <v>0.50079227923740877</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="8">
+        <f t="shared" si="16"/>
+        <v>0.51934008390162223</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2360,10 +2408,13 @@
         <v>0.22184571093978731</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" ref="K32" si="19">K19/K13</f>
+        <f t="shared" ref="K32:L32" si="19">K19/K13</f>
         <v>0.31748060324385852</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34070199868834888</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2408,10 +2459,13 @@
         <v>0.12444566238280268</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33" si="22">K23/K22</f>
+        <f t="shared" ref="K33:L33" si="22">K23/K22</f>
         <v>0.10061684700171908</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="8">
+        <f t="shared" si="22"/>
+        <v>0.13940179118450854</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD1E49D-0D24-4600-8AD5-D9192BEF5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB7A3A7-54BC-414B-85C6-A5454CE8FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{64F614F3-188A-4D6B-A075-FD701993A851}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{64F614F3-188A-4D6B-A075-FD701993A851}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{2BEBA291-2E2D-478E-925C-6C2C92C39FF3}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{2BEBA291-2E2D-478E-925C-6C2C92C39FF3}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Netflix</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Sports ?</t>
-  </si>
-  <si>
-    <t>Streaming Services</t>
   </si>
   <si>
     <t>Netlix</t>
@@ -952,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27F8007-01EE-4828-B035-097EAE631A0E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -996,7 +993,7 @@
         <v>425.21100000000001</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1020,7 +1017,7 @@
         <v>8390.52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1038,7 +1035,7 @@
         <v>14453.206</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1230,10 +1227,10 @@
         <v>89.63</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1312,10 +1309,10 @@
         <v>101.13</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1394,10 +1391,10 @@
         <v>53.33</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1476,10 +1473,10 @@
         <v>57.54</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1523,10 +1520,10 @@
         <v>301.63</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1572,10 +1569,10 @@
         <v>33.972085004807212</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2308,10 +2305,10 @@
         <v>0.15886737359766423</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13897,10 +13894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7900D06B-D06B-4F74-A6A9-713B12E075E8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13916,25 +13913,35 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>282.7</v>
+      </c>
+      <c r="D4" s="8">
+        <f>+C4/$C$10</f>
+        <v>0.333254744783685</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -13942,11 +13949,11 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>282.7</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="D5" s="8">
-        <f>+C5/$C$11</f>
-        <v>0.333254744783685</v>
+        <f t="shared" ref="D5:D10" si="0">+C5/$C$10</f>
+        <v>0.18649062831545443</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13954,88 +13961,76 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>158.19999999999999</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" ref="D6:D11" si="0">+C6/$C$11</f>
-        <v>0.18649062831545443</v>
+        <f t="shared" si="0"/>
+        <v>8.4757750795709075E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>71.900000000000006</v>
+        <v>110.5</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>8.4757750795709075E-2</v>
+        <v>0.13026052104208419</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>110.5</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>0.13026052104208419</v>
+        <v>2.9470706118118591E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.9470706118118591E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="20">
         <v>200</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
         <v>0.23576564894494872</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1">
-        <f>+SUM(C5:C10)</f>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1">
+        <f>+SUM(C4:C9)</f>
         <v>848.3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
         <v>252</v>
       </c>
     </row>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AC37BA-E49D-4282-9B1F-C86BE2AB06F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC61DAE-25A9-4A37-9F41-617F2441C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Netflix</t>
   </si>
@@ -349,6 +349,9 @@
   <si>
     <t>n.a.</t>
   </si>
+  <si>
+    <t>Stock Split 1/10 on 17-11-2025</t>
+  </si>
 </sst>
 </file>
 
@@ -359,13 +362,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -567,44 +576,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -958,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27F8007-01EE-4828-B035-097EAE631A0E}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="12">
-        <v>1253.22</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1004,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="11">
-        <v>425.21100000000001</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>71</v>
+        <v>423.73233399999998</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,7 +1033,7 @@
       </c>
       <c r="I5" s="11">
         <f>I4*I3</f>
-        <v>532882.92942000006</v>
+        <v>475851.41108200001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1027,11 +1041,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="11">
-        <f>8177.405+213.115</f>
-        <v>8390.52</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>71</v>
+        <f>9287.287+37.105</f>
+        <v>9324.3919999999998</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1044,12 +1058,12 @@
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11">
-        <f>0+14453.206</f>
-        <v>14453.206</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>71</v>
+      <c r="I7" s="29">
+        <f>0+14463.02</f>
+        <v>14463.02</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1068,7 +1082,7 @@
       </c>
       <c r="I8" s="11">
         <f>I5-I6+I7</f>
-        <v>538945.61542000005</v>
+        <v>480990.03908200003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1100,6 +1114,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1115,11 +1134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5423B-D71A-4917-B45D-E61C9BF33B58}">
   <dimension ref="A1:R667"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1225,9 @@
       <c r="L3" s="11">
         <v>4929</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="11">
+        <v>5071.7809999999999</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -1247,7 +1268,9 @@
       <c r="L4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -1288,7 +1311,9 @@
       <c r="L5" s="11">
         <v>3538</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11">
+        <v>3699.0520000000001</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1329,7 +1354,9 @@
       <c r="L6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1370,7 +1397,9 @@
       <c r="L7" s="11">
         <v>1307</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="11">
+        <v>1370.913</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1411,7 +1440,9 @@
       <c r="L8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -1452,7 +1483,9 @@
       <c r="L9" s="11">
         <v>1305</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="11">
+        <v>1368.5609999999999</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1493,7 +1526,9 @@
       <c r="L10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1540,7 +1575,9 @@
       <c r="L11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -1589,7 +1626,9 @@
       <c r="L12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -1630,7 +1669,9 @@
       <c r="L13" s="15">
         <v>11079.165999999999</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="15">
+        <v>11510.307000000001</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1671,7 +1712,9 @@
       <c r="L14" s="11">
         <v>5325.3109999999997</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11">
+        <v>6164.25</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1691,7 +1734,7 @@
         <v>3513.8310000000001</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" ref="E15:L15" si="1">E13-E14</f>
+        <f t="shared" ref="E15:M15" si="1">E13-E14</f>
         <v>3610.8899999999994</v>
       </c>
       <c r="F15" s="11">
@@ -1722,7 +1765,10 @@
         <f t="shared" si="1"/>
         <v>5753.8549999999996</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>5346.0570000000007</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -1763,7 +1809,9 @@
       <c r="L16" s="11">
         <v>713.26499999999999</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="11">
+        <v>786.29499999999996</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1804,7 +1852,9 @@
       <c r="L17" s="11">
         <v>824.68299999999999</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="11">
+        <v>853.58399999999995</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -1845,7 +1895,9 @@
       <c r="L18" s="11">
         <v>441.21300000000002</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="11">
+        <v>457.93099999999998</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -1881,7 +1933,7 @@
         <v>2602.8369999999995</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19:L19" si="3">I15-SUM(I16:I18)</f>
+        <f t="shared" ref="I19:M19" si="3">I15-SUM(I16:I18)</f>
         <v>2909.4769999999994</v>
       </c>
       <c r="J19" s="11">
@@ -1896,7 +1948,10 @@
         <f t="shared" si="3"/>
         <v>3774.6939999999995</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="11">
+        <f t="shared" si="3"/>
+        <v>3248.2470000000008</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -1937,7 +1992,9 @@
       <c r="L20" s="11">
         <v>182.649</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="11">
+        <v>175.29400000000001</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -1978,7 +2035,9 @@
       <c r="L21" s="11">
         <v>39.630000000000003</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="11">
+        <v>36.457000000000001</v>
+      </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -2014,7 +2073,7 @@
         <v>2513.8559999999998</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" ref="I22:L22" si="5">I19-I20+I21</f>
+        <f t="shared" ref="I22:M22" si="5">I19-I20+I21</f>
         <v>2702.9539999999993</v>
       </c>
       <c r="J22" s="11">
@@ -2029,7 +2088,10 @@
         <f t="shared" si="5"/>
         <v>3631.6749999999997</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="11">
+        <f t="shared" si="5"/>
+        <v>3109.4100000000008</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -2070,7 +2132,9 @@
       <c r="L23" s="11">
         <v>506.262</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>562.49400000000003</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2121,7 +2185,10 @@
         <f>+L22-L23</f>
         <v>3125.4129999999996</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="11">
+        <f>+M22-M23</f>
+        <v>2546.9160000000006</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -2175,7 +2242,7 @@
         <v>4.9929801309104427</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" ref="I26:L26" si="9">I24/I27</f>
+        <f t="shared" ref="I26:M26" si="9">I24/I27</f>
         <v>5.519135342647445</v>
       </c>
       <c r="J26" s="14">
@@ -2190,7 +2257,10 @@
         <f t="shared" si="9"/>
         <v>7.3502637514081233</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="14">
+        <f t="shared" si="9"/>
+        <v>6.000438208997422</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -2231,7 +2301,9 @@
       <c r="L27" s="11">
         <v>425.21100000000001</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11">
+        <v>424.45499999999998</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -2273,7 +2345,7 @@
         <v>0.16757769135396372</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" ref="I29:L29" si="11">I13/E13-1</f>
+        <f t="shared" ref="I29:M29" si="11">I13/E13-1</f>
         <v>0.15020895216250496</v>
       </c>
       <c r="J29" s="8">
@@ -2288,7 +2360,10 @@
         <f t="shared" si="11"/>
         <v>0.15899222851858563</v>
       </c>
-      <c r="M29" s="11"/>
+      <c r="M29" s="8">
+        <f t="shared" si="11"/>
+        <v>0.17156793442000251</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -2325,7 +2400,9 @@
       <c r="L30" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="11"/>
+      <c r="M30" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -2376,7 +2453,10 @@
         <f t="shared" si="16"/>
         <v>0.51934008390162223</v>
       </c>
-      <c r="M31" s="11"/>
+      <c r="M31" s="5">
+        <f t="shared" ref="M31" si="17">M15/M13</f>
+        <v>0.4644582459877048</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -2388,23 +2468,23 @@
         <v>45</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:G32" si="17">C19/C13</f>
+        <f t="shared" ref="C32:G32" si="18">C19/C13</f>
         <v>0.21004917844176493</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.2231728136048742</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.22435945766096266</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.169397033850334</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.28094027601692129</v>
       </c>
       <c r="H32" s="5">
@@ -2412,22 +2492,25 @@
         <v>0.27228293673915793</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" ref="I32:J32" si="18">I19/I13</f>
+        <f t="shared" ref="I32:J32" si="19">I19/I13</f>
         <v>0.29613892654057833</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.22184571093978731</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:L32" si="19">K19/K13</f>
+        <f t="shared" ref="K32:L32" si="20">K19/K13</f>
         <v>0.31748060324385852</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.34070199868834888</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32" si="21">M19/M13</f>
+        <v>0.28220333306487833</v>
+      </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
@@ -2439,23 +2522,23 @@
         <v>46</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:G33" si="20">C23/C22</f>
+        <f t="shared" ref="C33:G33" si="22">C23/C22</f>
         <v>0.10162963404295464</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.11416563252531363</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12133045652334479</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18314675723336163</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.10799826664254551</v>
       </c>
       <c r="H33" s="5">
@@ -2463,22 +2546,25 @@
         <v>0.14581185238931746</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" ref="I33:J33" si="21">I23/I22</f>
+        <f t="shared" ref="I33:J33" si="23">I23/I22</f>
         <v>0.12558297329514304</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.12444566238280268</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ref="K33:L33" si="22">K23/K22</f>
+        <f t="shared" ref="K33:L33" si="24">K23/K22</f>
         <v>0.10061684700171908</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13940179118450854</v>
       </c>
-      <c r="M33" s="11"/>
+      <c r="M33" s="5">
+        <f t="shared" ref="M33" si="25">M23/M22</f>
+        <v>0.18090055669725122</v>
+      </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC61DAE-25A9-4A37-9F41-617F2441C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64841BC0-6E0D-4964-A1F8-4358C8B51202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
+    <workbookView xWindow="225" yWindow="3855" windowWidth="38175" windowHeight="15240" xr2:uid="{D63826A5-B078-46BA-BBB8-108F6999A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Netflix</t>
   </si>
@@ -352,6 +352,15 @@
   <si>
     <t>Stock Split 1/10 on 17-11-2025</t>
   </si>
+  <si>
+    <t>https://about.netflix.com/en/news/netflix-to-acquire-warner-bros</t>
+  </si>
+  <si>
+    <t>05-12-2025 Acqusition of Warner Bros Discovery for 82.7 Billion USD EV (72 Billion USD Equity Value)</t>
+  </si>
+  <si>
+    <t>Deal with Open AI: 1 billion USD investment in Open AI, Disney Ips for Sora and GPT</t>
+  </si>
 </sst>
 </file>
 
@@ -362,13 +371,25 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -576,49 +597,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -972,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27F8007-01EE-4828-B035-097EAE631A0E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1121,6 +1144,21 @@
         <v>75</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5B4F513D-BEEA-49C1-BABE-F49BE3F91AE8}"/>
@@ -1134,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5423B-D71A-4917-B45D-E61C9BF33B58}">
   <dimension ref="A1:R667"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
